--- a/results/mp/logistic/corona/confidence/84/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>forced</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -82,9 +82,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,27 +91,33 @@
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>the</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -130,111 +133,111 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
@@ -244,37 +247,34 @@
     <t>you</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
-    <t>we</t>
+    <t>all</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>and</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>in</t>
@@ -635,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8586387434554974</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L7">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="M7">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5675675675675675</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4761904761904762</v>
+        <v>0.5026455026455027</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.825</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4554263565891473</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C10">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4406779661016949</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4313725490196079</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3636363636363636</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,16 +1275,16 @@
         <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7948717948717948</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2550335570469799</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>0.7878787878787878</v>
@@ -1354,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2194444444444444</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2111111111111111</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7682926829268293</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1468253968253968</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,37 +1504,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.08042895442359249</v>
+        <v>0.02171799027552674</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>343</v>
+        <v>3018</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,37 +1554,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01941747572815534</v>
+        <v>0.01908065915004337</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="F20">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3030</v>
+        <v>1131</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,37 +1604,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01736552308343922</v>
+        <v>0.01368570080226522</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="F21">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2320</v>
+        <v>2090</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>0.75</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,37 +1654,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01517306780464675</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="C22">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2077</v>
+        <v>2326</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7441860465116279</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1704,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01141352063213345</v>
+        <v>0.008837391987431265</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="E23">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F23">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2252</v>
+        <v>5047</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.74</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,37 +1754,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008262836907338186</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="F24">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5041</v>
+        <v>2268</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.6825396825396826</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1804,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00736</v>
+        <v>0.00855784469096672</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E25">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="F25">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3102</v>
+        <v>3128</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.675</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,37 +1854,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006917599186164801</v>
+        <v>0.008500772797527048</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E26">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="F26">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4881</v>
+        <v>2566</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.6558823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,63 +1904,87 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006329113924050633</v>
+        <v>0.007958801498127341</v>
       </c>
       <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>0.62</v>
+      </c>
+      <c r="F27">
+        <v>0.38</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4238</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="L27">
+        <v>216</v>
+      </c>
+      <c r="M27">
+        <v>216</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.005494505494505495</v>
+      </c>
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="D27">
-        <v>89</v>
-      </c>
-      <c r="E27">
-        <v>0.7</v>
-      </c>
-      <c r="F27">
-        <v>0.3</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4239</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.65</v>
-      </c>
-      <c r="L27">
-        <v>26</v>
-      </c>
-      <c r="M27">
-        <v>26</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="D28">
+        <v>109</v>
+      </c>
+      <c r="E28">
+        <v>0.75</v>
+      </c>
+      <c r="F28">
+        <v>0.25</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4887</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.6428571428571429</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,73 +1996,73 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.6317991631799164</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="L29">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M29">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.608843537414966</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L30">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5957446808510638</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L31">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="M31">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2050,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5846153846153846</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2076,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5476190476190477</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2102,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2128,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2154,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2185,16 +2209,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.3717948717948718</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2206,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.3561643835616438</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2232,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.3389830508474576</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2258,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.328125</v>
+        <v>0.34375</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2284,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.3114754098360656</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2310,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.1774193548387097</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2336,93 +2360,93 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.05321100917431193</v>
+        <v>0.05311355311355311</v>
       </c>
       <c r="L43">
         <v>29</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.05276381909547739</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1131</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.04830917874396135</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.04556354916067146</v>
+        <v>0.03499079189686925</v>
       </c>
       <c r="L46">
         <v>19</v>
@@ -2440,59 +2464,59 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>398</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.03316749585406302</v>
+        <v>0.0335707019328586</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>583</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="K48">
-        <v>0.03045685279187817</v>
+        <v>0.03206337231233497</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>955</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2500,25 +2524,25 @@
         <v>80</v>
       </c>
       <c r="K49">
-        <v>0.0267260579064588</v>
+        <v>0.03110419906687403</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>27</v>
       </c>
       <c r="N49">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="O49">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>874</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2526,337 +2550,389 @@
         <v>81</v>
       </c>
       <c r="K50">
-        <v>0.02484939759036145</v>
+        <v>0.02598652550529355</v>
       </c>
       <c r="L50">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2590</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.02391441157960982</v>
+        <v>0.02503912363067293</v>
       </c>
       <c r="L51">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="N51">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="O51">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3102</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.0234375</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L52">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N52">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2375</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.02205419029615627</v>
+        <v>0.02092925910422771</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M53">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N53">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="O53">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1552</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.02190923317683881</v>
+        <v>0.01957070707070707</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="O54">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1250</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.02125279642058166</v>
+        <v>0.01729818780889621</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>875</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="K56">
-        <v>0.0196652719665272</v>
+        <v>0.01650231434896357</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2343</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K57">
-        <v>0.01632406287787183</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L57">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="M57">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="N57">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="O57">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>4881</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K58">
-        <v>0.01610611084793936</v>
+        <v>0.0142578125</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="M58">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="N58">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="O58">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2077</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K59">
-        <v>0.01600624634003514</v>
+        <v>0.01304145319049837</v>
       </c>
       <c r="L59">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M59">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="N59">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="O59">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>5041</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K60">
-        <v>0.01441525226691467</v>
+        <v>0.01135288552507096</v>
       </c>
       <c r="L60">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N60">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="O60">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>4239</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="K61">
-        <v>0.01357862461673237</v>
+        <v>0.009790209790209791</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N61">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="O61">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2252</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="K62">
-        <v>0.01260504201680672</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="L62">
+        <v>21</v>
+      </c>
+      <c r="M62">
+        <v>41</v>
+      </c>
+      <c r="N62">
+        <v>0.51</v>
+      </c>
+      <c r="O62">
+        <v>0.49</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M62">
-        <v>43</v>
-      </c>
-      <c r="N62">
-        <v>0.63</v>
-      </c>
-      <c r="O62">
-        <v>0.37</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2115</v>
+      <c r="K63">
+        <v>0.008947592671495527</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>53</v>
+      </c>
+      <c r="N63">
+        <v>0.4</v>
+      </c>
+      <c r="O63">
+        <v>0.6</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64">
+        <v>0.007236842105263158</v>
+      </c>
+      <c r="L64">
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <v>89</v>
+      </c>
+      <c r="N64">
+        <v>0.25</v>
+      </c>
+      <c r="O64">
+        <v>0.75</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3018</v>
       </c>
     </row>
   </sheetData>
